--- a/results/accel-glmm-results/habitat-season/lmb/glmm_multi_comp_hab_within_hab_LMB.xlsx
+++ b/results/accel-glmm-results/habitat-season/lmb/glmm_multi_comp_hab_within_hab_LMB.xlsx
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.698692131218568</v>
+        <v>0.806894511460617</v>
       </c>
       <c r="H2" t="n">
-        <v>0.152991918147383</v>
+        <v>0.0902626890121446</v>
       </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.63742389784761</v>
+        <v>-1.91805909292759</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.658365681846627</v>
+        <v>0.645651656549176</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0373632074903588</v>
+        <v>0.00917148459720282</v>
       </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-7.36535806386653</v>
+        <v>-30.7986636860888</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0000000000270308178793514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.02292358910259</v>
+        <v>1.04661626773175</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0520436891164349</v>
+        <v>0.0264884636899569</v>
       </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.445478596447147</v>
+        <v>1.800266934792</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.942282948998425</v>
+        <v>0.800168606154522</v>
       </c>
       <c r="H5" t="n">
-        <v>0.199416993220716</v>
+        <v>0.0897055388561325</v>
       </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.280910959294248</v>
+        <v>-1.98854878730234</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.683034528347841</v>
+        <v>0.77095544598149</v>
       </c>
       <c r="H6" t="n">
-        <v>0.150002875919768</v>
+        <v>0.0878427688068737</v>
       </c>
       <c r="I6" t="e">
         <v>#NUM!</v>
@@ -631,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.7358300628116</v>
+        <v>-2.28299440588269</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.643611789639352</v>
+        <v>0.616894344618247</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03843785426441</v>
+        <v>0.0165133081613456</v>
       </c>
       <c r="I7" t="e">
         <v>#NUM!</v>
@@ -669,10 +669,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>-7.37849925018224</v>
+        <v>-18.0457751574743</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0000000000244928049942849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.10134733339551</v>
+        <v>0.987502576858034</v>
       </c>
       <c r="H8" t="n">
-        <v>0.288193871881207</v>
+        <v>0.175265198353641</v>
       </c>
       <c r="I8" t="e">
         <v>#NUM!</v>
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.368910587436985</v>
+        <v>-0.0708583512201663</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.907372929049295</v>
+        <v>0.901742026018586</v>
       </c>
       <c r="H9" t="n">
-        <v>0.132578909853481</v>
+        <v>0.115335475603683</v>
       </c>
       <c r="I9" t="e">
         <v>#NUM!</v>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.665250851981974</v>
+        <v>-0.808634927912254</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -799,10 +799,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.823875358422869</v>
+        <v>0.913154099189985</v>
       </c>
       <c r="H11" t="n">
-        <v>0.184892724813419</v>
+        <v>0.135922891322433</v>
       </c>
       <c r="I11" t="e">
         <v>#NUM!</v>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.863280785321736</v>
+        <v>-0.610350646178583</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -893,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.30134144955566</v>
+        <v>1.65150691072196</v>
       </c>
       <c r="H14" t="n">
-        <v>0.349754131981652</v>
+        <v>0.361630369345433</v>
       </c>
       <c r="I14" t="e">
         <v>#NUM!</v>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0.980024543869527</v>
+        <v>2.29112795154251</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -931,10 +931,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.19822196823161</v>
+        <v>1.15057478759627</v>
       </c>
       <c r="H15" t="n">
-        <v>0.222913859738677</v>
+        <v>0.205530046186997</v>
       </c>
       <c r="I15" t="e">
         <v>#NUM!</v>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.972057013494564</v>
+        <v>0.785196623911994</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -997,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.920759089507789</v>
+        <v>0.696681788084856</v>
       </c>
       <c r="H17" t="n">
-        <v>0.180867441369589</v>
+        <v>0.0921145610371027</v>
       </c>
       <c r="I17" t="e">
         <v>#NUM!</v>
@@ -1009,10 +1009,10 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.420280019276887</v>
+        <v>-2.73354472590943</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="18">
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.604332602692952</v>
+        <v>0.630945469873289</v>
       </c>
       <c r="H20" t="n">
-        <v>0.039005434254803</v>
+        <v>0.0182531305009342</v>
       </c>
       <c r="I20" t="e">
         <v>#NUM!</v>
@@ -1103,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>-7.80302479641368</v>
+        <v>-15.9190776160157</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000000000000924742221886441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1129,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.600220511923089</v>
+        <v>0.602582653033566</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0381343666220128</v>
+        <v>0.0153422796469165</v>
       </c>
       <c r="I21" t="e">
         <v>#NUM!</v>
@@ -1141,10 +1141,10 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>-8.03441861242326</v>
+        <v>-19.8944656948968</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000000000000143856209811146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.19604234635237</v>
+        <v>1.20678002705247</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0635202164337451</v>
+        <v>0.0252774723515188</v>
       </c>
       <c r="I22" t="e">
         <v>#NUM!</v>
@@ -1179,10 +1179,10 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>3.37078798527048</v>
+        <v>8.97325313305902</v>
       </c>
       <c r="L22" t="n">
-        <v>0.114678882926002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1205,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.993195649628136</v>
+        <v>0.955047118659211</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0427746835149478</v>
+        <v>0.0258645772188469</v>
       </c>
       <c r="I23" t="e">
         <v>#NUM!</v>
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.15853181221452</v>
+        <v>-1.6983463755943</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.50527692814223</v>
+        <v>0.52283386841789</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0287652037588789</v>
+        <v>0.0141458938158284</v>
       </c>
       <c r="I24" t="e">
         <v>#NUM!</v>
@@ -1255,10 +1255,10 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>-11.9911057946728</v>
+        <v>-23.9683213141566</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000000000000000000000000000000605250591681644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1281,10 +1281,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.501838846888331</v>
+        <v>0.499330979569955</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0291077134748169</v>
+        <v>0.0109918838313895</v>
       </c>
       <c r="I25" t="e">
         <v>#NUM!</v>
@@ -1293,10 +1293,10 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>-11.8870882114062</v>
+        <v>-31.5485897246112</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00000000000000000000000000000211352579917301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1319,10 +1319,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.594571423569894</v>
+        <v>0.793907242088408</v>
       </c>
       <c r="H26" t="n">
-        <v>0.127861629948551</v>
+        <v>0.0832131928513175</v>
       </c>
       <c r="I26" t="e">
         <v>#NUM!</v>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>-2.41766245748842</v>
+        <v>-2.20187175687539</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.745189663843802</v>
+        <v>0.765597779505446</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0426863026768361</v>
+        <v>0.0121167974437633</v>
       </c>
       <c r="I27" t="e">
         <v>#NUM!</v>
@@ -1369,10 +1369,10 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>-5.13449443890175</v>
+        <v>-16.8765629973555</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0000432842291398624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1395,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.2364293040318</v>
+        <v>1.23597854434478</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0548718395472629</v>
+        <v>0.0190179257093596</v>
       </c>
       <c r="I28" t="e">
         <v>#NUM!</v>
@@ -1407,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>4.782133524305</v>
+        <v>13.7690159415274</v>
       </c>
       <c r="L28" t="n">
-        <v>0.000265369935599266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.25332236683959</v>
+        <v>0.964341599267324</v>
       </c>
       <c r="H29" t="n">
-        <v>0.259672241021052</v>
+        <v>0.100717242051771</v>
       </c>
       <c r="I29" t="e">
         <v>#NUM!</v>
@@ -1445,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>1.08982608594179</v>
+        <v>-0.347655920942992</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.480877816168776</v>
+        <v>0.64233092533922</v>
       </c>
       <c r="H30" t="n">
-        <v>0.102749534745318</v>
+        <v>0.0670546924226365</v>
       </c>
       <c r="I30" t="e">
         <v>#NUM!</v>
@@ -1483,10 +1483,10 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>-3.42649605735508</v>
+        <v>-4.24025273150399</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0935476636130878</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="31">
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.602694922721302</v>
+        <v>0.619426431800484</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0316774894390718</v>
+        <v>0.00835245121817608</v>
       </c>
       <c r="I31" t="e">
         <v>#NUM!</v>
@@ -1521,10 +1521,10 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>-9.63368781394536</v>
+        <v>-35.5202689021657</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00000000000000000008816393098415</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/accel-glmm-results/habitat-season/lmb/glmm_multi_comp_hab_within_hab_LMB.xlsx
+++ b/results/accel-glmm-results/habitat-season/lmb/glmm_multi_comp_hab_within_hab_LMB.xlsx
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.806894511460617</v>
+        <v>0.806894511527605</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0902626890121446</v>
+        <v>0.0902626890281051</v>
       </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.91805909292759</v>
+        <v>-1.91805909200552</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.645651656549176</v>
+        <v>0.645651656539064</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00917148459720282</v>
+        <v>0.00917148459690653</v>
       </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-30.7986636860888</v>
+        <v>-30.798663687704</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.04661626773175</v>
+        <v>1.04661626774275</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0264884636899569</v>
+        <v>0.0264884636905745</v>
       </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1.800266934792</v>
+        <v>1.80026693518426</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.800168606154522</v>
+        <v>0.80016860607556</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0897055388561325</v>
+        <v>0.0897055388556336</v>
       </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.98854878730234</v>
+        <v>-1.9885487879974</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.77095544598149</v>
+        <v>0.770955446037391</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0878427688068737</v>
+        <v>0.0878427688212459</v>
       </c>
       <c r="I6" t="e">
         <v>#NUM!</v>
@@ -631,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>-2.28299440588269</v>
+        <v>-2.28299440503832</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.616894344618247</v>
+        <v>0.616894344602101</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0165133081613456</v>
+        <v>0.0165133081610238</v>
       </c>
       <c r="I7" t="e">
         <v>#NUM!</v>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>-18.0457751574743</v>
+        <v>-18.0457751583314</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.987502576858034</v>
+        <v>0.987502576884656</v>
       </c>
       <c r="H8" t="n">
-        <v>0.175265198353641</v>
+        <v>0.175265198349305</v>
       </c>
       <c r="I8" t="e">
         <v>#NUM!</v>
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0708583512201663</v>
+        <v>-0.070858351071935</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.901742026018586</v>
+        <v>0.901742026062999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.115335475603683</v>
+        <v>0.115335475599925</v>
       </c>
       <c r="I9" t="e">
         <v>#NUM!</v>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.808634927912254</v>
+        <v>-0.808634927593359</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -799,10 +799,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.913154099189985</v>
+        <v>0.913154099210342</v>
       </c>
       <c r="H11" t="n">
-        <v>0.135922891322433</v>
+        <v>0.135922891323543</v>
       </c>
       <c r="I11" t="e">
         <v>#NUM!</v>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.610350646178583</v>
+        <v>-0.610350646037432</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -893,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.65150691072196</v>
+        <v>1.65150691098218</v>
       </c>
       <c r="H14" t="n">
-        <v>0.361630369345433</v>
+        <v>0.361630369291159</v>
       </c>
       <c r="I14" t="e">
         <v>#NUM!</v>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>2.29112795154251</v>
+        <v>2.29112795296695</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -931,10 +931,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.15057478759627</v>
+        <v>1.15057478787869</v>
       </c>
       <c r="H15" t="n">
-        <v>0.205530046186997</v>
+        <v>0.205530046149029</v>
       </c>
       <c r="I15" t="e">
         <v>#NUM!</v>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.785196623911994</v>
+        <v>0.785196625623844</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -997,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.696681788084856</v>
+        <v>0.696681788146086</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0921145610371027</v>
+        <v>0.0921145610403699</v>
       </c>
       <c r="I17" t="e">
         <v>#NUM!</v>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>-2.73354472590943</v>
+        <v>-2.73354472538801</v>
       </c>
       <c r="L17" t="n">
         <v>0.959</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.630945469873289</v>
+        <v>0.630945469869072</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0182531305009342</v>
+        <v>0.0182531305006612</v>
       </c>
       <c r="I20" t="e">
         <v>#NUM!</v>
@@ -1103,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>-15.9190776160157</v>
+        <v>-15.9190776163784</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1129,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.602582653033566</v>
+        <v>0.602582653040137</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0153422796469165</v>
+        <v>0.0153422796471957</v>
       </c>
       <c r="I21" t="e">
         <v>#NUM!</v>
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>-19.8944656948968</v>
+        <v>-19.8944656943234</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.20678002705247</v>
+        <v>1.20678002704923</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0252774723515188</v>
+        <v>0.0252774723513906</v>
       </c>
       <c r="I22" t="e">
         <v>#NUM!</v>
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>8.97325313305902</v>
+        <v>8.97325313295211</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1205,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.955047118659211</v>
+        <v>0.955047118676009</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0258645772188469</v>
+        <v>0.0258645772190148</v>
       </c>
       <c r="I23" t="e">
         <v>#NUM!</v>
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.6983463755943</v>
+        <v>-1.69834637496368</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.52283386841789</v>
+        <v>0.522833868415801</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0141458938158284</v>
+        <v>0.0141458938156214</v>
       </c>
       <c r="I24" t="e">
         <v>#NUM!</v>
@@ -1255,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>-23.9683213141566</v>
+        <v>-23.9683213145593</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1281,10 +1281,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.499330979569955</v>
+        <v>0.499330979576742</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0109918838313895</v>
+        <v>0.0109918838316461</v>
       </c>
       <c r="I25" t="e">
         <v>#NUM!</v>
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>-31.5485897246112</v>
+        <v>-31.5485897236861</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1319,10 +1319,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.793907242088408</v>
+        <v>0.793907242114751</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0832131928513175</v>
+        <v>0.0832131928585549</v>
       </c>
       <c r="I26" t="e">
         <v>#NUM!</v>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>-2.20187175687539</v>
+        <v>-2.20187175644037</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.765597779505446</v>
+        <v>0.765597779524966</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0121167974437633</v>
+        <v>0.0121167974439606</v>
       </c>
       <c r="I27" t="e">
         <v>#NUM!</v>
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>-16.8765629973555</v>
+        <v>-16.8765629959001</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1395,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.23597854434478</v>
+        <v>1.23597854436829</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0190179257093596</v>
+        <v>0.0190179257094632</v>
       </c>
       <c r="I28" t="e">
         <v>#NUM!</v>
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>13.7690159415274</v>
+        <v>13.7690159429501</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.964341599267324</v>
+        <v>0.964341599259913</v>
       </c>
       <c r="H29" t="n">
-        <v>0.100717242051771</v>
+        <v>0.100717242056498</v>
       </c>
       <c r="I29" t="e">
         <v>#NUM!</v>
@@ -1445,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.347655920942992</v>
+        <v>-0.347655920997586</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.64233092533922</v>
+        <v>0.642330925348319</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0670546924226365</v>
+        <v>0.0670546924272509</v>
       </c>
       <c r="I30" t="e">
         <v>#NUM!</v>
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>-4.24025273150399</v>
+        <v>-4.24025273113657</v>
       </c>
       <c r="L30" t="n">
         <v>0.003</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.619426431800484</v>
+        <v>0.619426431804498</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00835245121817608</v>
+        <v>0.00835245121831939</v>
       </c>
       <c r="I31" t="e">
         <v>#NUM!</v>
@@ -1521,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>-35.5202689021657</v>
+        <v>-35.5202689013059</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
